--- a/biology/Médecine/Intoxication/Intoxication.xlsx
+++ b/biology/Médecine/Intoxication/Intoxication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication est un ensemble de troubles du fonctionnement de l'organisme dus à l'absorption d'une substance étrangère, dite toxique, d'origine biologique, physique ou chimique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Typologies d'intoxications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle peut être aigüe ou chronique.
 L'absorption du toxique peut se faire :
@@ -552,7 +566,9 @@
           <t>Défense d'intoxication en droit pénal canadien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En droit pénal canadien, la défense d'intoxication est un moyen de défense de qui permet de réduire la portée d'une infraction, selon le degré d'intoxication de l'accusé.
 </t>
